--- a/05_Win32Api/001 宽窄字符 Win32入口 Win32调试输出.xlsx
+++ b/05_Win32Api/001 宽窄字符 Win32入口 Win32调试输出.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7C207-859C-4B66-8E58-B8103ACD1F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F11481-3BDF-4524-9E65-3E413E9B2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6888" yWindow="984" windowWidth="13116" windowHeight="10908" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="225">
   <si>
     <t>本节练习：</t>
   </si>
@@ -924,6 +924,10 @@
   </si>
   <si>
     <t>// win32很多错误并不直接报错，可以再可能报错地方，使用下列代码，获取上一次报错码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3702,37 +3706,42 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:B11"/>
+  <dimension ref="B4:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
